--- a/biology/Botanique/Aechmea_bauxilumii/Aechmea_bauxilumii.xlsx
+++ b/biology/Botanique/Aechmea_bauxilumii/Aechmea_bauxilumii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aechmea bauxilumii est une espèce de plantes de la famille des Bromeliaceae, endémique du Venezuela.
 </t>
@@ -513,10 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Distribution
-La zone de distribution n'est pas connue avec précision mais l'espèce a été découverte dans la municipalité de Cedeño dans l'État de Bolívar, entre la mine de bauxite et la campement de la compagnie exploitante CVG-Bauxilum dans la paroisse civile de Pijiguaos, dont elle tire son épithète en raison du soutien de cette compagnie dans la collecte d'espèces locales et la création d'un petit herbier[2].
-Habitat
-L'espèce croit sur les pentes rocheuses des forêts tropicales à proximité de la mine[2].
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La zone de distribution n'est pas connue avec précision mais l'espèce a été découverte dans la municipalité de Cedeño dans l'État de Bolívar, entre la mine de bauxite et la campement de la compagnie exploitante CVG-Bauxilum dans la paroisse civile de Pijiguaos, dont elle tire son épithète en raison du soutien de cette compagnie dans la collecte d'espèces locales et la création d'un petit herbier.
 </t>
         </is>
       </c>
@@ -542,12 +557,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Distribution et hatbitat</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce croit sur les pentes rocheuses des forêts tropicales à proximité de la mine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Aechmea_bauxilumii</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aechmea_bauxilumii</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est remarquable par la couleur violet foncé de ses bractées[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est remarquable par la couleur violet foncé de ses bractées.
 </t>
         </is>
       </c>
